--- a/CadPrimitives.xlsx
+++ b/CadPrimitives.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25601"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25629"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Projects\KBoSys\Projects\Metrology\QIF_Model\QIF_Model_SRC\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{192CFE7B-57F0-4B9D-A5DC-76A8ECDFE2A9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{04975C6D-652F-4BDF-997C-985BEEA90F6B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="30525" yWindow="0" windowWidth="20895" windowHeight="15600" xr2:uid="{E1C26DC3-5473-48F5-B31D-C4E6A85C8C3A}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{E1C26DC3-5473-48F5-B31D-C4E6A85C8C3A}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
   <si>
     <t>X3D</t>
   </si>
@@ -59,6 +59,33 @@
   </si>
   <si>
     <t>Sphere</t>
+  </si>
+  <si>
+    <t>Header</t>
+  </si>
+  <si>
+    <t>meta</t>
+  </si>
+  <si>
+    <t>CADLayer</t>
+  </si>
+  <si>
+    <t>CADAssembly</t>
+  </si>
+  <si>
+    <t>CADPart</t>
+  </si>
+  <si>
+    <t>CADFace</t>
+  </si>
+  <si>
+    <t>Shape</t>
+  </si>
+  <si>
+    <t>Appearance</t>
+  </si>
+  <si>
+    <t>Geometry</t>
   </si>
 </sst>
 </file>
@@ -413,17 +440,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{27F8F879-502A-46A2-97D1-35DF53EA00CD}">
-  <dimension ref="A1:C6"/>
+  <dimension ref="A1:C16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+      <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="18.5703125" style="1" customWidth="1"/>
-    <col min="2" max="2" width="16.28515625" style="1" customWidth="1"/>
-    <col min="3" max="3" width="16" style="1" customWidth="1"/>
+    <col min="2" max="2" width="21.28515625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="20.7109375" style="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -462,6 +489,49 @@
         <v>7</v>
       </c>
     </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B10" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B11" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B12" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B13" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B14" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B15" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B16" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
